--- a/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36615" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
   <si>
     <t>Study Title</t>
   </si>
@@ -239,9 +239,6 @@
     <t>COVID-19</t>
   </si>
   <si>
-    <t>capillary electrophoresis-mass spectrometry</t>
-  </si>
-  <si>
     <t>drug metabolism</t>
   </si>
   <si>
@@ -260,120 +257,63 @@
     <t>genetic modification design</t>
   </si>
   <si>
-    <t>direct infusion-mass spectrometry</t>
-  </si>
-  <si>
     <t>chemical library</t>
   </si>
   <si>
     <t>genotype design</t>
   </si>
   <si>
-    <t>flow injection analysis-mass spectrometry</t>
-  </si>
-  <si>
     <t>growth condition design</t>
   </si>
   <si>
-    <t>fourier transform ion cyclotron resonance mass spectrometry</t>
-  </si>
-  <si>
     <t>imprinting design</t>
   </si>
   <si>
-    <t>gas chromatography-mass spectrometry</t>
-  </si>
-  <si>
     <t>injury design</t>
   </si>
   <si>
-    <t>ion mobility spectrometry-mass spectrometry</t>
-  </si>
-  <si>
     <t>innate behavior design</t>
   </si>
   <si>
     <t>observational design</t>
   </si>
   <si>
-    <t>ion trap mass spectrometry</t>
-  </si>
-  <si>
     <t>organism part comparison design</t>
   </si>
   <si>
-    <t>isotope ratio mass spectrometry</t>
-  </si>
-  <si>
     <t>organism status design</t>
   </si>
   <si>
-    <t>laser mass spectrometry</t>
-  </si>
-  <si>
     <t>pathogenicity design</t>
   </si>
   <si>
     <t>population based design</t>
   </si>
   <si>
-    <t>mass spectrometry imaging</t>
-  </si>
-  <si>
-    <t>matrix-assisted laser desorption-ionisation imaging mass spectrometry</t>
-  </si>
-  <si>
     <t>sex design</t>
   </si>
   <si>
-    <t>matrix-assisted laser desorption-ionisation time-of-flight mass spectrometry</t>
-  </si>
-  <si>
     <t>species design</t>
   </si>
   <si>
-    <t>orbitrap</t>
-  </si>
-  <si>
     <t>stimulus or stress design</t>
   </si>
   <si>
-    <t>quadrupole mass spectrometer</t>
-  </si>
-  <si>
     <t>strain or line design</t>
   </si>
   <si>
-    <t>selected reaction monitoring</t>
-  </si>
-  <si>
     <t>time series design</t>
   </si>
   <si>
-    <t>selective ion monitoring</t>
-  </si>
-  <si>
-    <t>tandem mass spectrometry</t>
-  </si>
-  <si>
     <t>hardware variation design</t>
   </si>
   <si>
-    <t>time-of-flight mass spectrometry</t>
-  </si>
-  <si>
     <t>normalization testing design</t>
   </si>
   <si>
-    <t>two-dimensional gas chromatography</t>
-  </si>
-  <si>
     <t>operator variation design</t>
   </si>
   <si>
-    <t>high-resolution mass spectrometry</t>
-  </si>
-  <si>
     <t>optimization design</t>
   </si>
   <si>
@@ -702,10 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Update definitions to MB-IDF-version=2022-02-18 and MB-SDRF-version=2022-02-18.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Related study]</t>
   </si>
   <si>
@@ -748,21 +684,6 @@
     <t>dose response design</t>
   </si>
   <si>
-    <t>data-dependent acquisition</t>
-  </si>
-  <si>
-    <t>data-independent acquisition</t>
-  </si>
-  <si>
-    <t>liquid chromatography-mass spectrometry</t>
-  </si>
-  <si>
-    <t>SWATH MS</t>
-  </si>
-  <si>
-    <t>ultra-performance liquid chromatography-mass spectrometry</t>
-  </si>
-  <si>
     <t>submitter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,12 +744,6 @@
     <t>Extraction method</t>
   </si>
   <si>
-    <t>NMR tube type;Solvent;Sample pH;Temperature;Unit</t>
-  </si>
-  <si>
-    <t>Instrument;NMR probe;Number of transients;Pulse sequence name;Magnetic field strength;Unit</t>
-  </si>
-  <si>
     <t>Parameter Value[Extraction method]</t>
   </si>
   <si>
@@ -885,6 +800,38 @@
   </si>
   <si>
     <t>Enter md5 hash value of Free Induction Decay Data File here.</t>
+  </si>
+  <si>
+    <t>NMR tube type;Solvent;Sample pH;Temperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instrument;NMR probe;Number of transients;Pulse sequence name;Magnetic field strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13C nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>1H nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>four-dimensional nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>one-dimensional nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>three-dimensional nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>two-dimensional nuclear magnetic resonance spectroscopy</t>
+  </si>
+  <si>
+    <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +961,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,6 +1017,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1400,342 +1350,342 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="126.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="B16" s="35">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B20" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
   </sheetData>
@@ -1755,60 +1705,60 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="10"/>
+    <col min="1" max="16384" width="38.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
@@ -1819,7 +1769,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -1830,15 +1780,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1799,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1810,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1871,9 +1821,9 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1882,7 +1832,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1893,15 +1843,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1862,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -1923,10 +1873,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
@@ -1937,13 +1887,13 @@
         <v>43</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>44</v>
@@ -1952,7 +1902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -1963,13 +1913,13 @@
         <v>43</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>44</v>
@@ -1978,7 +1928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
@@ -1990,25 +1940,25 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +1970,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2032,35 +1982,35 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2071,46 +2021,48 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2144,7 +2096,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>ADMIN!$C$2:$C$26</xm:f>
+            <xm:f>ADMIN!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>B40:G40</xm:sqref>
         </x14:dataValidation>
@@ -2165,334 +2117,334 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="10"/>
+    <col min="1" max="1" width="48.6640625" style="10"/>
     <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="10"/>
+    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2515,61 +2467,61 @@
       <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="34.875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="34.875" style="3" customWidth="1"/>
-    <col min="31" max="31" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="34.88671875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="34.88671875" style="3" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="24.875" style="3"/>
+    <col min="37" max="37" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="24.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -2586,7 +2538,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>32</v>
@@ -2595,19 +2547,19 @@
         <v>30</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>33</v>
@@ -2622,22 +2574,22 @@
         <v>35</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="W4" s="24" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>30</v>
@@ -2652,13 +2604,13 @@
         <v>38</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="AC4" s="24" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="AD4" s="24" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="AE4" s="21" t="s">
         <v>30</v>
@@ -2667,7 +2619,7 @@
         <v>39</v>
       </c>
       <c r="AG4" s="21" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>30</v>
@@ -2676,16 +2628,16 @@
         <v>40</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AL4" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -2698,7 +2650,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2708,7 +2660,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2718,7 +2670,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -2739,7 +2691,7 @@
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -2752,7 +2704,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -2762,7 +2714,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2772,7 +2724,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
@@ -2793,7 +2745,7 @@
       <c r="AK6" s="11"/>
       <c r="AL6" s="11"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2806,7 +2758,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -2816,7 +2768,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -2826,7 +2778,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
@@ -2847,7 +2799,7 @@
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -2887,7 +2839,7 @@
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17"/>
@@ -2927,7 +2879,7 @@
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -2967,7 +2919,7 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
@@ -3007,7 +2959,7 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17"/>
@@ -3047,7 +2999,7 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -3087,7 +3039,7 @@
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
@@ -3127,7 +3079,7 @@
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -3167,7 +3119,7 @@
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3207,7 +3159,7 @@
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="17"/>
@@ -3247,7 +3199,7 @@
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17"/>
@@ -3287,7 +3239,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3327,7 +3279,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3367,7 +3319,7 @@
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3407,7 +3359,7 @@
       <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3447,7 +3399,7 @@
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3487,7 +3439,7 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3527,7 +3479,7 @@
       <c r="AK24" s="11"/>
       <c r="AL24" s="11"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3567,7 +3519,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3607,7 +3559,7 @@
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="17"/>
@@ -3647,7 +3599,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3687,7 +3639,7 @@
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3727,7 +3679,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="17"/>
@@ -3767,7 +3719,7 @@
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
@@ -3807,7 +3759,7 @@
       <c r="AK31" s="11"/>
       <c r="AL31" s="11"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="17"/>
@@ -3847,7 +3799,7 @@
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
@@ -3887,7 +3839,7 @@
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3927,7 +3879,7 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3967,7 +3919,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
@@ -4007,7 +3959,7 @@
       <c r="AK36" s="11"/>
       <c r="AL36" s="11"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -4047,7 +3999,7 @@
       <c r="AK37" s="11"/>
       <c r="AL37" s="11"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -4087,7 +4039,7 @@
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -4127,7 +4079,7 @@
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -4167,7 +4119,7 @@
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -4207,7 +4159,7 @@
       <c r="AK41" s="11"/>
       <c r="AL41" s="11"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -4247,7 +4199,7 @@
       <c r="AK42" s="11"/>
       <c r="AL42" s="11"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -4287,7 +4239,7 @@
       <c r="AK43" s="11"/>
       <c r="AL43" s="11"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
@@ -4327,7 +4279,7 @@
       <c r="AK44" s="11"/>
       <c r="AL44" s="11"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
@@ -4367,7 +4319,7 @@
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
@@ -4407,7 +4359,7 @@
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
@@ -4447,7 +4399,7 @@
       <c r="AK47" s="11"/>
       <c r="AL47" s="11"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="17"/>
@@ -4487,7 +4439,7 @@
       <c r="AK48" s="11"/>
       <c r="AL48" s="11"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="17"/>
@@ -4527,7 +4479,7 @@
       <c r="AK49" s="11"/>
       <c r="AL49" s="11"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
@@ -4567,7 +4519,7 @@
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17"/>
@@ -4607,7 +4559,7 @@
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="17"/>
@@ -4647,7 +4599,7 @@
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="17"/>
@@ -4687,7 +4639,7 @@
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="17"/>
@@ -4727,7 +4679,7 @@
       <c r="AK54" s="11"/>
       <c r="AL54" s="11"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="17"/>
@@ -4767,7 +4719,7 @@
       <c r="AK55" s="11"/>
       <c r="AL55" s="11"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="17"/>
@@ -4807,7 +4759,7 @@
       <c r="AK56" s="11"/>
       <c r="AL56" s="11"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="17"/>
@@ -4847,7 +4799,7 @@
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="17"/>
@@ -4887,7 +4839,7 @@
       <c r="AK58" s="11"/>
       <c r="AL58" s="11"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="17"/>
@@ -4927,7 +4879,7 @@
       <c r="AK59" s="11"/>
       <c r="AL59" s="11"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="17"/>
@@ -4967,7 +4919,7 @@
       <c r="AK60" s="11"/>
       <c r="AL60" s="11"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="17"/>
@@ -5007,7 +4959,7 @@
       <c r="AK61" s="11"/>
       <c r="AL61" s="11"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17"/>
@@ -5047,7 +4999,7 @@
       <c r="AK62" s="11"/>
       <c r="AL62" s="11"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="17"/>
@@ -5087,7 +5039,7 @@
       <c r="AK63" s="11"/>
       <c r="AL63" s="11"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="17"/>
@@ -5127,7 +5079,7 @@
       <c r="AK64" s="11"/>
       <c r="AL64" s="11"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17"/>
@@ -5167,7 +5119,7 @@
       <c r="AK65" s="11"/>
       <c r="AL65" s="11"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="18"/>
@@ -5207,7 +5159,7 @@
       <c r="AK66" s="11"/>
       <c r="AL66" s="11"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="18"/>
@@ -5247,7 +5199,7 @@
       <c r="AK67" s="11"/>
       <c r="AL67" s="11"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
@@ -5287,7 +5239,7 @@
       <c r="AK68" s="11"/>
       <c r="AL68" s="11"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="18"/>
@@ -5327,7 +5279,7 @@
       <c r="AK69" s="11"/>
       <c r="AL69" s="11"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="18"/>
@@ -5367,7 +5319,7 @@
       <c r="AK70" s="11"/>
       <c r="AL70" s="11"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="18"/>
@@ -5407,7 +5359,7 @@
       <c r="AK71" s="11"/>
       <c r="AL71" s="11"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
@@ -5447,7 +5399,7 @@
       <c r="AK72" s="11"/>
       <c r="AL72" s="11"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="18"/>
@@ -5487,7 +5439,7 @@
       <c r="AK73" s="11"/>
       <c r="AL73" s="11"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="18"/>
@@ -5527,7 +5479,7 @@
       <c r="AK74" s="11"/>
       <c r="AL74" s="11"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="18"/>
@@ -5567,7 +5519,7 @@
       <c r="AK75" s="11"/>
       <c r="AL75" s="11"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="18"/>
@@ -5607,7 +5559,7 @@
       <c r="AK76" s="11"/>
       <c r="AL76" s="11"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="18"/>
@@ -5647,7 +5599,7 @@
       <c r="AK77" s="11"/>
       <c r="AL77" s="11"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="18"/>
@@ -5687,7 +5639,7 @@
       <c r="AK78" s="11"/>
       <c r="AL78" s="11"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="18"/>
@@ -5727,7 +5679,7 @@
       <c r="AK79" s="11"/>
       <c r="AL79" s="11"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="18"/>
@@ -5767,7 +5719,7 @@
       <c r="AK80" s="11"/>
       <c r="AL80" s="11"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="18"/>
@@ -5807,7 +5759,7 @@
       <c r="AK81" s="11"/>
       <c r="AL81" s="11"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="18"/>
@@ -5847,7 +5799,7 @@
       <c r="AK82" s="11"/>
       <c r="AL82" s="11"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="18"/>
@@ -5887,7 +5839,7 @@
       <c r="AK83" s="11"/>
       <c r="AL83" s="11"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="18"/>
@@ -5927,7 +5879,7 @@
       <c r="AK84" s="11"/>
       <c r="AL84" s="11"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="18"/>
@@ -5967,7 +5919,7 @@
       <c r="AK85" s="11"/>
       <c r="AL85" s="11"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="18"/>
@@ -6007,7 +5959,7 @@
       <c r="AK86" s="11"/>
       <c r="AL86" s="11"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="18"/>
@@ -6047,7 +5999,7 @@
       <c r="AK87" s="11"/>
       <c r="AL87" s="11"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="18"/>
@@ -6087,7 +6039,7 @@
       <c r="AK88" s="11"/>
       <c r="AL88" s="11"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="18"/>
@@ -6127,7 +6079,7 @@
       <c r="AK89" s="11"/>
       <c r="AL89" s="11"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="18"/>
@@ -6167,7 +6119,7 @@
       <c r="AK90" s="11"/>
       <c r="AL90" s="11"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="18"/>
@@ -6207,7 +6159,7 @@
       <c r="AK91" s="11"/>
       <c r="AL91" s="11"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="18"/>
@@ -6247,7 +6199,7 @@
       <c r="AK92" s="11"/>
       <c r="AL92" s="11"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="18"/>
@@ -6287,7 +6239,7 @@
       <c r="AK93" s="11"/>
       <c r="AL93" s="11"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="18"/>
@@ -6327,7 +6279,7 @@
       <c r="AK94" s="11"/>
       <c r="AL94" s="11"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="18"/>
@@ -6367,7 +6319,7 @@
       <c r="AK95" s="11"/>
       <c r="AL95" s="11"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="18"/>
@@ -6407,7 +6359,7 @@
       <c r="AK96" s="11"/>
       <c r="AL96" s="11"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="18"/>
@@ -6447,7 +6399,7 @@
       <c r="AK97" s="11"/>
       <c r="AL97" s="11"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="18"/>
@@ -6487,7 +6439,7 @@
       <c r="AK98" s="11"/>
       <c r="AL98" s="11"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="18"/>
@@ -6527,7 +6479,7 @@
       <c r="AK99" s="11"/>
       <c r="AL99" s="11"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="18"/>
@@ -6567,7 +6519,7 @@
       <c r="AK100" s="11"/>
       <c r="AL100" s="11"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="18"/>
@@ -6607,7 +6559,7 @@
       <c r="AK101" s="11"/>
       <c r="AL101" s="11"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="18"/>
@@ -6647,7 +6599,7 @@
       <c r="AK102" s="11"/>
       <c r="AL102" s="11"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="18"/>
@@ -6687,7 +6639,7 @@
       <c r="AK103" s="11"/>
       <c r="AL103" s="11"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="18"/>
@@ -6727,7 +6679,7 @@
       <c r="AK104" s="11"/>
       <c r="AL104" s="11"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="18"/>
@@ -6787,178 +6739,178 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="10"/>
-    <col min="3" max="4" width="37.875" style="28"/>
-    <col min="5" max="16384" width="37.875" style="10"/>
+    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="10"/>
+    <col min="3" max="4" width="37.88671875" style="28"/>
+    <col min="5" max="16384" width="37.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
@@ -6966,302 +6918,302 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
     </row>
@@ -7277,18 +7229,18 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="3" max="3" width="96.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
@@ -7299,7 +7251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -7307,10 +7259,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -7318,314 +7270,260 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
   <si>
     <t>Study Title</t>
   </si>
@@ -832,6 +832,15 @@
   </si>
   <si>
     <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
+  </si>
+  <si>
+    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
+  </si>
+  <si>
+    <t>Labeled Extract Name was made optional.</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1359,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1469,8 +1478,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44802</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -2463,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2574,7 @@
       <c r="M4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="24" t="s">
@@ -6735,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6887,17 +6900,21 @@
       <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="MB_Study_IDF" sheetId="2" r:id="rId2"/>
-    <sheet name="MB_Study_IDF HELP" sheetId="14" r:id="rId3"/>
-    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId4"/>
-    <sheet name="MB_Assay_SDRF HELP" sheetId="15" r:id="rId5"/>
-    <sheet name="ADMIN" sheetId="10" r:id="rId6"/>
+    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId3"/>
+    <sheet name="ADMIN" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ADMIN!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADMIN!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="168">
   <si>
     <t>Study Title</t>
   </si>
@@ -327,216 +325,24 @@
   </si>
   <si>
     <t>software variation design</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t># Fields without line boxes can have multiple values in corresponding columns.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Extraction protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Chromatography protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Person Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MAGE-TAB Version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Processed Data File md5]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,38 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Submission type]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,10 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Assay (SDRF) columns</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,24 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extract Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metabolite target analysis</t>
   </si>
   <si>
@@ -688,10 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Uneditable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -704,18 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Submission type: NMR (NMR)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,9 +481,6 @@
   </si>
   <si>
     <t>Parameter Value[Extraction method]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Extraction method]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -785,21 +518,6 @@
   </si>
   <si>
     <t>Comment[Free Induction Decay Data File md5]</t>
-  </si>
-  <si>
-    <t>Reference to NMR spectrometry protocol.</t>
-  </si>
-  <si>
-    <t>Reference to NMR assay protocol.</t>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Free Induction Decay Data File here.</t>
   </si>
   <si>
     <t>NMR tube type;Solvent;Sample pH;Temperature</t>
@@ -834,13 +552,11 @@
     <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
   </si>
   <si>
-    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
-  </si>
-  <si>
-    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
-  </si>
-  <si>
     <t>Labeled Extract Name was made optional.</t>
+  </si>
+  <si>
+    <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -970,7 +686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1001,28 +717,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1358,9 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1371,52 +1067,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,19 +1121,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,10 +1141,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="35">
-        <v>44741</v>
+        <v>120</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,13 +1153,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1471,7 +1167,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1479,7 +1175,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1728,13 +1424,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1743,12 +1439,12 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1756,7 +1452,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,7 +1532,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1861,11 +1557,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="11"/>
@@ -1876,7 +1572,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="11"/>
@@ -1890,7 +1586,7 @@
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1900,13 +1596,13 @@
         <v>43</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>44</v>
@@ -1926,13 +1622,13 @@
         <v>43</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>44</v>
@@ -1954,25 +1650,25 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11"/>
@@ -1984,7 +1680,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="11"/>
@@ -2039,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2049,25 +1745,25 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>199</v>
+      <c r="A43" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>198</v>
+      <c r="A44" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,356 +1819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.6640625" style="10"/>
-    <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
@@ -2523,12 +1869,12 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -2550,8 +1896,8 @@
       <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>212</v>
+      <c r="F4" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>32</v>
@@ -2559,50 +1905,50 @@
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="I4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>222</v>
+      <c r="R4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>30</v>
@@ -2610,20 +1956,20 @@
       <c r="Y4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="24" t="s">
+      <c r="Z4" s="23" t="s">
         <v>37</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>38</v>
       </c>
       <c r="AB4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD4" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="AE4" s="21" t="s">
         <v>30</v>
@@ -2632,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="AG4" s="21" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>30</v>
@@ -2641,10 +1987,10 @@
         <v>40</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="AL4" s="21" t="s">
         <v>41</v>
@@ -2663,7 +2009,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2673,7 +2019,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2683,7 +2029,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -2717,7 +2063,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -2727,7 +2073,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2737,7 +2083,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
@@ -2771,7 +2117,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -2781,7 +2127,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -2791,7 +2137,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
@@ -6744,504 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="10"/>
-    <col min="3" max="4" width="37.88671875" style="28"/>
-    <col min="5" max="16384" width="37.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7276,7 +6125,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,7 +6136,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,56 +6147,56 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>64</v>
@@ -7374,7 +6223,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7459,7 +6308,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>94</v>
@@ -7467,7 +6316,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>95</v>

--- a/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_NMR_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
   <si>
     <t>Study Title</t>
   </si>
@@ -493,12 +493,6 @@
     <t>Parameter Value[Sample pH]</t>
   </si>
   <si>
-    <t>Parameter Value[Temperature]</t>
-  </si>
-  <si>
-    <t>Unit[]</t>
-  </si>
-  <si>
     <t>Parameter Value[NMR probe]</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
   </si>
   <si>
     <t>Parameter Value[Pulse sequence name]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Magnetic field strength]</t>
   </si>
   <si>
     <t>Acquisition Parameter Data File</t>
@@ -556,6 +547,22 @@
   </si>
   <si>
     <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Temperature]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[temperature]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Magnetic field strength]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[magnetic_field_strength]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1087,7 +1094,7 @@
     </row>
     <row r="5" spans="1:2" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1151,7 @@
         <v>120</v>
       </c>
       <c r="B16" s="27">
-        <v>44848</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1174,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1175,7 +1182,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1658,10 +1665,10 @@
         <v>142</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1735,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1822,9 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1915,10 +1920,10 @@
         <v>146</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>33</v>
@@ -1933,22 +1938,22 @@
         <v>35</v>
       </c>
       <c r="R4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="U4" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>153</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>30</v>
@@ -1966,10 +1971,10 @@
         <v>105</v>
       </c>
       <c r="AC4" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD4" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AE4" s="21" t="s">
         <v>30</v>
@@ -6125,7 +6130,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6136,7 +6141,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6147,7 +6152,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,7 +6163,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6169,7 +6174,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,7 +6185,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6191,7 +6196,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
